--- a/项目管理表单.xlsx
+++ b/项目管理表单.xlsx
@@ -1,48 +1,539 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>事务</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>详细描述</t>
+  </si>
+  <si>
+    <t>开始时间</t>
+  </si>
+  <si>
+    <t>计划完成时间</t>
+  </si>
+  <si>
+    <t>责任人</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>输出商业计划书初稿</t>
+  </si>
+  <si>
+    <t>找方向</t>
+  </si>
+  <si>
+    <t>主要写出整体的思路，目标是给两边的夫人一个交代，讲清楚我们的创业思路，获取她们两的认可；</t>
+  </si>
+  <si>
+    <t>刘昊/龙小波</t>
+  </si>
+  <si>
+    <t>2018/6/19：已完成一版初稿，但是PPT模板以及内容还需要继续细化，当前这版本的目标不是要去融资，主查为了讲清楚创业思路；</t>
+  </si>
+  <si>
+    <t>进一步明确公司的愿景，使命，行为价值观</t>
+  </si>
+  <si>
+    <t>2018/6/19：已有初稿；</t>
+  </si>
+  <si>
+    <t>确定离职时间</t>
+  </si>
+  <si>
+    <t>找人</t>
+  </si>
+  <si>
+    <t>主要是刘昊离职时间，龙小波的离职时间已经离职；根据以往龙小波的经验，一般会是拖至9月30日；</t>
+  </si>
+  <si>
+    <t>刘昊</t>
+  </si>
+  <si>
+    <t>2018/6/19:主要是处理好保险以及社保相关的事务，还有就是跟华为方确认好离职的时间；
+当前进展，准备购入泰康人寿与华为合作的保险套餐。</t>
+  </si>
+  <si>
+    <t>组建团队</t>
+  </si>
+  <si>
+    <t>找人的工作需要在商业计划书写作完成之时开展；
+需要继续补充编程人员，美工人员，产品经理，市场推广人员；
+这个过程会是一个比较漫长和拉锯的过程；
+核心团队的成员控制在7人左右最好，至少再找5人，组成七武士；
+前期主要是需要补齐开发人员，到一定阶段之后补齐运营人员；</t>
+  </si>
+  <si>
+    <t>越快越好</t>
+  </si>
+  <si>
+    <t>2018/6/19：
+首先要补齐编码人员，考虑通过找到实习生或者朋友加入开发；
+其次在核心的代码完成到一定程度之时美工需要找到并且并行开发界面；
+游戏界的产品经理需要找到；</t>
+  </si>
+  <si>
+    <t>筹划办工场地</t>
+  </si>
+  <si>
+    <t>找地</t>
+  </si>
+  <si>
+    <t>1、考虑到龙小波接送小孩方便
+2、考虑到回家方便，办工场地不宜太远，但建议也不要太近；
+3、办公场地不建议在双方的家里面，会受到太多家庭因素的干扰；
+4、购置办公用品；
+5、场地费用成本要控制在最低；</t>
+  </si>
+  <si>
+    <t>2018/6/19:考虑找到低成本的租用房间作为办工场地；暂不考虑孵化器，成本太高；</t>
+  </si>
+  <si>
+    <t>确定公司的名称</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>确定出公司的名称；</t>
+  </si>
+  <si>
+    <t>制定移植scratch产品方案</t>
+  </si>
+  <si>
+    <t>先从技术上评估移植可行性，评估出第一个demo版本的工作量，评估技术难度以及大至的工作量；</t>
+  </si>
+  <si>
+    <t>龙小波</t>
+  </si>
+  <si>
+    <t>2018/6/19：当前正在学习相关的知识；</t>
+  </si>
+  <si>
+    <t>讨论产品及运营设计</t>
+  </si>
+  <si>
+    <t>找钱</t>
+  </si>
+  <si>
+    <t>在团队成型之后讨论产品设计，刷新相应的内容进BP，用于后期融资需要
+1、产品要分两个阶段开展，首先第一个阶段是做出demo并且运营此demo；
+2、第二个阶段要规划好资金进入之后的开发和运营目标；
+3、运营部分也是分为两个部分开展；
+4、产品的名称要用心去设计；</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>全体核心成员</t>
+  </si>
+  <si>
+    <t>刷新商业计划书终稿</t>
+  </si>
+  <si>
+    <t>将产品的整体设计完成得更加丰满之后，刷新商业计划书，作为去融资的终稿；</t>
+  </si>
+  <si>
+    <t>刘昊/龙小波/??</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -50,27 +541,347 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -360,45 +1171,386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="40" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="2"/>
+    <col min="7" max="7" width="12.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="8" customHeight="1"/>
+    <row r="2" spans="2:9">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="2:9">
+      <c r="B3" s="4">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43270</v>
+      </c>
+      <c r="G3" s="7">
+        <v>43280</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7">
+        <v>43270</v>
+      </c>
+      <c r="G4" s="7">
+        <v>43280</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="54" spans="2:9">
+      <c r="B5" s="4">
+        <f>ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43270</v>
+      </c>
+      <c r="G5" s="7">
+        <v>43297</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="2:9">
+      <c r="B6" s="4">
+        <f>ROW()-2</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="7">
+        <v>43270</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="94.5" spans="2:9">
+      <c r="B7" s="4">
+        <f>ROW()-2</f>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="7">
+        <v>43270</v>
+      </c>
+      <c r="G7" s="7">
+        <v>43297</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4">
+        <f>ROW()-2</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" ht="27" spans="2:9">
+      <c r="B9" s="4">
+        <f>ROW()-2</f>
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7">
+        <v>43270</v>
+      </c>
+      <c r="G9" s="7">
+        <v>43301</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="108" spans="2:9">
+      <c r="B10" s="4">
+        <f>ROW()-2</f>
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="7">
+        <v>43270</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" ht="27" spans="2:9">
+      <c r="B11" s="4">
+        <f t="shared" ref="B6:B16" si="0">ROW()-2</f>
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="7">
+        <v>43270</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/项目管理表单.xlsx
+++ b/项目管理表单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>序号</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>刘昊/龙小波/??</t>
+  </si>
+  <si>
+    <t>持续学习STEM相关理念，持续学习Scratch相关知识</t>
+  </si>
+  <si>
+    <t>能力提升</t>
   </si>
 </sst>
 </file>
@@ -168,12 +174,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,9 +188,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,15 +248,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,14 +286,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -253,81 +325,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,175 +347,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,16 +557,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,11 +597,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,16 +614,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,9 +645,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,148 +658,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,14 +1175,14 @@
   <dimension ref="B1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="48.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="2"/>
@@ -1222,7 +1221,7 @@
     </row>
     <row r="3" ht="40.5" spans="2:9">
       <c r="B3" s="4">
-        <f>ROW()-2</f>
+        <f t="shared" ref="B3:B10" si="0">ROW()-2</f>
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1249,7 +1248,7 @@
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1276,7 +1275,7 @@
     </row>
     <row r="5" ht="54" spans="2:9">
       <c r="B5" s="4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1303,7 +1302,7 @@
     </row>
     <row r="6" ht="108" spans="2:9">
       <c r="B6" s="4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1330,7 +1329,7 @@
     </row>
     <row r="7" ht="94.5" spans="2:9">
       <c r="B7" s="4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1357,7 +1356,7 @@
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1376,7 +1375,7 @@
     </row>
     <row r="9" ht="27" spans="2:9">
       <c r="B9" s="4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1403,7 +1402,7 @@
     </row>
     <row r="10" ht="108" spans="2:9">
       <c r="B10" s="4">
-        <f>ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1428,7 +1427,7 @@
     </row>
     <row r="11" ht="27" spans="2:9">
       <c r="B11" s="4">
-        <f t="shared" ref="B6:B16" si="0">ROW()-2</f>
+        <f t="shared" ref="B6:B16" si="1">ROW()-2</f>
         <v>9</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -1451,20 +1450,28 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="4"/>
+      <c r="F12" s="7">
+        <v>43270</v>
+      </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C13" s="5"/>
@@ -1477,7 +1484,7 @@
     </row>
     <row r="14" spans="2:9">
       <c r="B14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C14" s="5"/>
@@ -1490,7 +1497,7 @@
     </row>
     <row r="15" spans="2:9">
       <c r="B15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C15" s="5"/>
@@ -1503,7 +1510,7 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C16" s="5"/>
